--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,6 +40,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
     <t>creepy</t>
   </si>
   <si>
@@ -49,34 +52,34 @@
     <t>illegal</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
     <t>dangerous</t>
   </si>
   <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>behind</t>
@@ -85,12 +88,6 @@
     <t>false</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>crazy</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
     <t>great</t>
   </si>
   <si>
+    <t>powerful</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
@@ -121,19 +121,16 @@
     <t>good</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
-    <t>’</t>
-  </si>
-  <si>
-    <t>…</t>
+    <t>media</t>
+  </si>
+  <si>
+    <t>netflix</t>
   </si>
   <si>
     <t>positive</t>
@@ -494,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -502,10 +499,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -566,10 +563,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -584,16 +581,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -605,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -613,13 +610,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -631,10 +628,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -663,13 +660,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9230769230769231</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -681,19 +678,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K5">
-        <v>0.8666666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L5">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -705,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -713,13 +710,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0.9038461538461539</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -731,19 +728,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K6">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="L6">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -755,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -784,16 +781,16 @@
         <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K7">
-        <v>0.7017543859649122</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -805,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -813,13 +810,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8461538461538461</v>
+        <v>0.8</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -831,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K8">
-        <v>0.6333333333333333</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L8">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -855,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -863,13 +860,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8421052631578947</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -881,19 +878,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K9">
-        <v>0.5733333333333334</v>
+        <v>0.55</v>
       </c>
       <c r="L9">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -905,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -913,13 +910,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6470588235294118</v>
+        <v>0.675</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -931,31 +928,31 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="L10">
+        <v>40</v>
+      </c>
+      <c r="M10">
+        <v>40</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>35</v>
-      </c>
-      <c r="K10">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="L10">
-        <v>10</v>
-      </c>
-      <c r="M10">
-        <v>10</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -966,10 +963,10 @@
         <v>0.625</v>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -981,31 +978,31 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K11">
-        <v>0.5517241379310345</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="L11">
+        <v>13</v>
+      </c>
+      <c r="M11">
+        <v>13</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>16</v>
-      </c>
-      <c r="M11">
-        <v>16</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1013,13 +1010,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1031,19 +1028,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K12">
-        <v>0.08287795992714025</v>
+        <v>0.0883424408014572</v>
       </c>
       <c r="L12">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M12">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1055,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1007</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1063,13 +1060,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1081,13 +1078,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K13">
-        <v>0.01536491677336748</v>
+        <v>0.01807228915662651</v>
       </c>
       <c r="L13">
         <v>12</v>
@@ -1105,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>769</v>
+        <v>652</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1113,13 +1110,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4855072463768116</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C14">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1131,19 +1128,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K14">
-        <v>0.00576036866359447</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="L14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1155,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1726</v>
+        <v>531</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1163,13 +1160,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4347826086956522</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1181,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1189,13 +1186,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4230769230769231</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1207,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1215,13 +1212,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.375</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1233,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1241,13 +1238,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3617021276595745</v>
+        <v>0.375</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1259,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1267,13 +1264,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.358974358974359</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1285,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1293,13 +1290,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3428571428571429</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1311,33 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="C21">
-        <v>12</v>
-      </c>
-      <c r="D21">
-        <v>12</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
